--- a/5.0.0/StructureDefinition-cdm-coverage.xlsx
+++ b/5.0.0/StructureDefinition-cdm-coverage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5057" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5454" uniqueCount="574">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -460,6 +460,16 @@
     <t>The age of the person in years for the month of eligibility or service</t>
   </si>
   <si>
+    <t>employeeSnapshotAgeInYears</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-snapshot-age-in-years}
+</t>
+  </si>
+  <si>
+    <t>The age of the employee in years for the month of eligibility or service</t>
+  </si>
+  <si>
     <t>ageGroup</t>
   </si>
   <si>
@@ -490,6 +500,90 @@
     <t>Attributed provider reference with period</t>
   </si>
   <si>
+    <t>benefitStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/benefit-status}
+</t>
+  </si>
+  <si>
+    <t>HIPAA standard code for the benefit status</t>
+  </si>
+  <si>
+    <t>Coverage.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Coverage.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Coverage.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/StructureDefinition/benefit-status</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Coverage.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/ValueSet/hipaa-benefit-status</t>
+  </si>
+  <si>
     <t>claimGroupIdentifier</t>
   </si>
   <si>
@@ -818,78 +912,26 @@
     <t>Code indicating the highest level of education that the employee has completed (e.g., not a high school graduate, high school graduate, some college, associates degree, bachelors degree, graduate degree)</t>
   </si>
   <si>
-    <t>Coverage.extension.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Coverage.extension.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Coverage.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
     <t>http://ibm.com/fhir/cdm/StructureDefinition/employee-education-level</t>
   </si>
   <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Coverage.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
+    <t>http://ibm.com/fhir/cdm/ValueSet/wh-payer-education-level</t>
+  </si>
+  <si>
+    <t>employeeGender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/employee-gender}
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/wh-payer-education-level</t>
+    <t>Employee gender code</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/StructureDefinition/employee-gender</t>
+  </si>
+  <si>
+    <t>http://ibm.com/fhir/cdm/ValueSet/wh-payer-gender</t>
   </si>
   <si>
     <t>employeeHireDate</t>
@@ -968,7 +1010,10 @@
 </t>
   </si>
   <si>
-    <t>Code for the status of the employee</t>
+    <t>Status of the employee based on one or more code systems</t>
+  </si>
+  <si>
+    <t>Status of the employee based on one or more code systems. Example codes include HIPAA (HipaaEmployeeStatusCodeSystem), Payer (WhPayerEmployeeStatusCodeSystem) or customer-specific codes.</t>
   </si>
   <si>
     <t>employeeUnionId</t>
@@ -1213,26 +1258,6 @@
   </si>
   <si>
     <t>Specifies whether the member should be counted as eligible for the coverage period. A value of 1 is used to count the member as eligible for the coverage period. Else the value should be 0.</t>
-  </si>
-  <si>
-    <t>whPayerSubscriberRelationshipCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/wh-payer-subscriber-relationship}
-</t>
-  </si>
-  <si>
-    <t>Health Data Connect standard code for the relationship of the member to the contract holder</t>
-  </si>
-  <si>
-    <t>localSubscriberRelationshipCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/local-subscriber-relationship-code}
-</t>
-  </si>
-  <si>
-    <t>Code for the relationship of the member to the subscriber</t>
   </si>
   <si>
     <t>Coverage.modifierExtension</t>
@@ -2113,7 +2138,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO136"/>
+  <dimension ref="A1:AO147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3838,7 +3863,7 @@
         <v>154</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3927,7 +3952,7 @@
         <v>129</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>75</v>
@@ -3949,13 +3974,13 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4041,11 +4066,9 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>75</v>
       </c>
@@ -4066,13 +4089,13 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4123,25 +4146,25 @@
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -4158,11 +4181,9 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>75</v>
       </c>
@@ -4171,7 +4192,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>75</v>
@@ -4183,13 +4204,13 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4228,19 +4249,19 @@
         <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -4249,7 +4270,7 @@
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>136</v>
@@ -4258,7 +4279,7 @@
         <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -4275,17 +4296,15 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>84</v>
@@ -4300,22 +4319,24 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>75</v>
@@ -4357,19 +4378,19 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>75</v>
@@ -4392,11 +4413,9 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>75</v>
       </c>
@@ -4417,13 +4436,13 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4462,31 +4481,29 @@
         <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>75</v>
@@ -4509,10 +4526,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>75</v>
@@ -4534,13 +4551,13 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4567,13 +4584,11 @@
         <v>75</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>75</v>
@@ -4591,19 +4606,19 @@
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>75</v>
@@ -4629,7 +4644,7 @@
         <v>129</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>75</v>
@@ -4651,13 +4666,13 @@
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4746,7 +4761,7 @@
         <v>129</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>75</v>
@@ -4768,13 +4783,13 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4863,7 +4878,7 @@
         <v>129</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>75</v>
@@ -4885,13 +4900,13 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4980,7 +4995,7 @@
         <v>129</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>75</v>
@@ -5002,13 +5017,13 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5097,7 +5112,7 @@
         <v>129</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>75</v>
@@ -5119,13 +5134,13 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -5214,7 +5229,7 @@
         <v>129</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>75</v>
@@ -5236,13 +5251,13 @@
         <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -5331,7 +5346,7 @@
         <v>129</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>75</v>
@@ -5353,13 +5368,13 @@
         <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5448,7 +5463,7 @@
         <v>129</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>75</v>
@@ -5470,13 +5485,13 @@
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5565,7 +5580,7 @@
         <v>129</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>75</v>
@@ -5587,13 +5602,13 @@
         <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5682,7 +5697,7 @@
         <v>129</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>75</v>
@@ -5704,13 +5719,13 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5799,7 +5814,7 @@
         <v>129</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>75</v>
@@ -5821,13 +5836,13 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5916,7 +5931,7 @@
         <v>129</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>75</v>
@@ -5938,13 +5953,13 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6033,7 +6048,7 @@
         <v>129</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>75</v>
@@ -6055,13 +6070,13 @@
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6150,7 +6165,7 @@
         <v>129</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>75</v>
@@ -6160,7 +6175,7 @@
         <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>75</v>
@@ -6172,13 +6187,13 @@
         <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6267,7 +6282,7 @@
         <v>129</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>75</v>
@@ -6289,13 +6304,13 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6384,7 +6399,7 @@
         <v>129</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>75</v>
@@ -6406,13 +6421,13 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6501,7 +6516,7 @@
         <v>129</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>75</v>
@@ -6511,7 +6526,7 @@
         <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>75</v>
@@ -6523,13 +6538,13 @@
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6618,7 +6633,7 @@
         <v>129</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>75</v>
@@ -6640,13 +6655,13 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6735,7 +6750,7 @@
         <v>129</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>75</v>
@@ -6757,13 +6772,13 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6852,7 +6867,7 @@
         <v>129</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>75</v>
@@ -6874,13 +6889,13 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6969,7 +6984,7 @@
         <v>129</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>75</v>
@@ -6979,7 +6994,7 @@
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>75</v>
@@ -6991,13 +7006,13 @@
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7086,7 +7101,7 @@
         <v>129</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>75</v>
@@ -7108,13 +7123,13 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7203,7 +7218,7 @@
         <v>129</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>75</v>
@@ -7225,13 +7240,13 @@
         <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7320,7 +7335,7 @@
         <v>129</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>75</v>
@@ -7330,7 +7345,7 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>75</v>
@@ -7342,13 +7357,13 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7434,9 +7449,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="C46" t="s" s="2">
         <v>75</v>
       </c>
@@ -7457,13 +7474,13 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7514,25 +7531,25 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -7549,9 +7566,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="C47" t="s" s="2">
         <v>75</v>
       </c>
@@ -7560,7 +7579,7 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>75</v>
@@ -7572,13 +7591,13 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>130</v>
+        <v>262</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>131</v>
+        <v>263</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>132</v>
+        <v>263</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7617,19 +7636,19 @@
         <v>75</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>258</v>
+        <v>135</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7638,7 +7657,7 @@
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>136</v>
@@ -7647,7 +7666,7 @@
         <v>75</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -7664,15 +7683,17 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>84</v>
@@ -7687,24 +7708,22 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>75</v>
@@ -7746,19 +7765,19 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>264</v>
+        <v>135</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>75</v>
@@ -7781,9 +7800,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>75</v>
       </c>
@@ -7804,13 +7825,13 @@
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7849,29 +7870,31 @@
         <v>75</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AB49" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>75</v>
@@ -7894,10 +7917,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>75</v>
@@ -7919,13 +7942,13 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7952,11 +7975,13 @@
         <v>75</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X50" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Y50" t="s" s="2">
-        <v>274</v>
+        <v>75</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>75</v>
@@ -7974,19 +7999,19 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>75</v>
@@ -8012,7 +8037,7 @@
         <v>129</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>75</v>
@@ -8022,7 +8047,7 @@
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>75</v>
@@ -8034,13 +8059,13 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="K51" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="L51" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8129,7 +8154,7 @@
         <v>129</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>75</v>
@@ -8139,7 +8164,7 @@
         <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>75</v>
@@ -8151,10 +8176,10 @@
         <v>75</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>280</v>
@@ -8243,11 +8268,9 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>75</v>
       </c>
@@ -8256,7 +8279,7 @@
         <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>75</v>
@@ -8268,13 +8291,13 @@
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>282</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>283</v>
+        <v>159</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>284</v>
+        <v>160</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8325,25 +8348,25 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>75</v>
@@ -8360,11 +8383,9 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>75</v>
       </c>
@@ -8373,7 +8394,7 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>75</v>
@@ -8385,13 +8406,13 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>286</v>
+        <v>130</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>287</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>287</v>
+        <v>132</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8430,19 +8451,19 @@
         <v>75</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -8451,7 +8472,7 @@
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>136</v>
@@ -8460,7 +8481,7 @@
         <v>75</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>75</v>
@@ -8477,7 +8498,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>251</v>
+        <v>166</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8485,7 +8506,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>84</v>
@@ -8500,22 +8521,24 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>252</v>
+        <v>167</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>75</v>
@@ -8557,10 +8580,10 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>254</v>
+        <v>171</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>84</v>
@@ -8575,7 +8598,7 @@
         <v>75</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>75</v>
@@ -8592,7 +8615,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>256</v>
+        <v>172</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8603,7 +8626,7 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>75</v>
@@ -8615,13 +8638,13 @@
         <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8660,37 +8683,35 @@
         <v>75</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB56" s="2"/>
       <c r="AC56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>258</v>
+        <v>178</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>75</v>
@@ -8707,15 +8728,17 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>84</v>
@@ -8730,24 +8753,22 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>288</v>
+        <v>75</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>75</v>
@@ -8765,13 +8786,11 @@
         <v>75</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>75</v>
@@ -8789,10 +8808,10 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>264</v>
+        <v>178</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>84</v>
@@ -8801,7 +8820,7 @@
         <v>75</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>75</v>
@@ -8824,9 +8843,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B58" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="C58" t="s" s="2">
         <v>75</v>
       </c>
@@ -8847,13 +8868,13 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8892,29 +8913,31 @@
         <v>75</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AB58" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>75</v>
@@ -8937,11 +8960,9 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>75</v>
       </c>
@@ -8962,13 +8983,13 @@
         <v>75</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>267</v>
+        <v>159</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>268</v>
+        <v>160</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8995,11 +9016,13 @@
         <v>75</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Y59" t="s" s="2">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>75</v>
@@ -9017,7 +9040,7 @@
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>271</v>
+        <v>161</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -9029,13 +9052,13 @@
         <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>75</v>
@@ -9052,11 +9075,9 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>75</v>
       </c>
@@ -9065,7 +9086,7 @@
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>75</v>
@@ -9077,13 +9098,13 @@
         <v>75</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>291</v>
+        <v>130</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>292</v>
+        <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>292</v>
+        <v>132</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9122,19 +9143,19 @@
         <v>75</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
@@ -9143,7 +9164,7 @@
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>136</v>
@@ -9152,7 +9173,7 @@
         <v>75</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>75</v>
@@ -9169,17 +9190,15 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>84</v>
@@ -9194,22 +9213,24 @@
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>294</v>
+        <v>100</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>295</v>
+        <v>167</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>75</v>
+        <v>286</v>
       </c>
       <c r="R61" t="s" s="2">
         <v>75</v>
@@ -9251,19 +9272,19 @@
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>75</v>
@@ -9286,11 +9307,9 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
         <v>75</v>
       </c>
@@ -9311,13 +9330,13 @@
         <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>297</v>
+        <v>173</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>298</v>
+        <v>174</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9356,31 +9375,29 @@
         <v>75</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB62" s="2"/>
       <c r="AC62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>75</v>
@@ -9403,10 +9420,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>299</v>
+        <v>179</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>75</v>
@@ -9428,13 +9445,13 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>300</v>
+        <v>173</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>301</v>
+        <v>175</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9461,13 +9478,11 @@
         <v>75</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X63" s="2"/>
       <c r="Y63" t="s" s="2">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>75</v>
@@ -9485,19 +9500,19 @@
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>75</v>
@@ -9523,7 +9538,7 @@
         <v>129</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>75</v>
@@ -9533,7 +9548,7 @@
         <v>76</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>75</v>
@@ -9545,13 +9560,13 @@
         <v>75</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9640,7 +9655,7 @@
         <v>129</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>75</v>
@@ -9650,7 +9665,7 @@
         <v>76</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>75</v>
@@ -9662,13 +9677,13 @@
         <v>75</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9757,7 +9772,7 @@
         <v>129</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>75</v>
@@ -9767,7 +9782,7 @@
         <v>76</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>75</v>
@@ -9779,13 +9794,13 @@
         <v>75</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9874,7 +9889,7 @@
         <v>129</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>75</v>
@@ -9896,13 +9911,13 @@
         <v>75</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9988,11 +10003,9 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
         <v>75</v>
       </c>
@@ -10013,13 +10026,13 @@
         <v>75</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>316</v>
+        <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>317</v>
+        <v>160</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10070,25 +10083,25 @@
         <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>75</v>
@@ -10105,11 +10118,9 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>75</v>
       </c>
@@ -10118,7 +10129,7 @@
         <v>76</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>75</v>
@@ -10130,13 +10141,13 @@
         <v>75</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>319</v>
+        <v>130</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>320</v>
+        <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>320</v>
+        <v>132</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10175,19 +10186,19 @@
         <v>75</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -10196,7 +10207,7 @@
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>136</v>
@@ -10205,7 +10216,7 @@
         <v>75</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>75</v>
@@ -10222,17 +10233,15 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>84</v>
@@ -10247,22 +10256,24 @@
         <v>75</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>322</v>
+        <v>100</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>323</v>
+        <v>167</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>75</v>
+        <v>301</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>75</v>
@@ -10304,19 +10315,19 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>75</v>
@@ -10339,11 +10350,9 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>75</v>
       </c>
@@ -10364,13 +10373,13 @@
         <v>75</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>325</v>
+        <v>173</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>326</v>
+        <v>174</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10409,31 +10418,29 @@
         <v>75</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB71" s="2"/>
       <c r="AC71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>75</v>
@@ -10456,10 +10463,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>327</v>
+        <v>179</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>75</v>
@@ -10481,13 +10488,13 @@
         <v>75</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>328</v>
+        <v>173</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>329</v>
+        <v>174</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>329</v>
+        <v>175</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10514,13 +10521,11 @@
         <v>75</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X72" s="2"/>
       <c r="Y72" t="s" s="2">
-        <v>75</v>
+        <v>302</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>75</v>
@@ -10538,19 +10543,19 @@
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>75</v>
@@ -10573,9 +10578,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B73" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="C73" t="s" s="2">
         <v>75</v>
       </c>
@@ -10596,13 +10603,13 @@
         <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>86</v>
+        <v>304</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10653,25 +10660,25 @@
         <v>75</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>75</v>
@@ -10688,9 +10695,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B74" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="C74" t="s" s="2">
         <v>75</v>
       </c>
@@ -10699,7 +10708,7 @@
         <v>76</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>75</v>
@@ -10711,13 +10720,13 @@
         <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>130</v>
+        <v>307</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>131</v>
+        <v>308</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>132</v>
+        <v>308</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10756,19 +10765,19 @@
         <v>75</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>258</v>
+        <v>135</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -10777,7 +10786,7 @@
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>136</v>
@@ -10786,7 +10795,7 @@
         <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>75</v>
@@ -10803,15 +10812,17 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="C75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>84</v>
@@ -10826,24 +10837,22 @@
         <v>75</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>75</v>
@@ -10885,19 +10894,19 @@
         <v>75</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>264</v>
+        <v>135</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>75</v>
@@ -10920,9 +10929,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B76" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="C76" t="s" s="2">
         <v>75</v>
       </c>
@@ -10943,13 +10954,13 @@
         <v>75</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10988,29 +10999,31 @@
         <v>75</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AB76" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>75</v>
@@ -11033,10 +11046,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>75</v>
@@ -11058,13 +11071,13 @@
         <v>75</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11091,11 +11104,13 @@
         <v>75</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X77" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Y77" t="s" s="2">
-        <v>331</v>
+        <v>75</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>75</v>
@@ -11113,19 +11128,19 @@
         <v>75</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>75</v>
@@ -11151,7 +11166,7 @@
         <v>129</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>75</v>
@@ -11173,13 +11188,13 @@
         <v>75</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11268,7 +11283,7 @@
         <v>129</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>75</v>
@@ -11290,13 +11305,13 @@
         <v>75</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11385,7 +11400,7 @@
         <v>129</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>75</v>
@@ -11407,13 +11422,13 @@
         <v>75</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11502,7 +11517,7 @@
         <v>129</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>75</v>
@@ -11524,13 +11539,13 @@
         <v>75</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11619,7 +11634,7 @@
         <v>129</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>75</v>
@@ -11641,13 +11656,13 @@
         <v>75</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11736,7 +11751,7 @@
         <v>129</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>75</v>
@@ -11758,13 +11773,13 @@
         <v>75</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11853,7 +11868,7 @@
         <v>129</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>75</v>
@@ -11875,13 +11890,13 @@
         <v>75</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11970,7 +11985,7 @@
         <v>129</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>75</v>
@@ -11992,13 +12007,13 @@
         <v>75</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12084,7 +12099,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>251</v>
+        <v>158</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12110,10 +12125,10 @@
         <v>86</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>253</v>
+        <v>160</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12164,7 +12179,7 @@
         <v>75</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
@@ -12182,7 +12197,7 @@
         <v>75</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>255</v>
+        <v>162</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>75</v>
@@ -12199,7 +12214,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>256</v>
+        <v>163</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12270,7 +12285,7 @@
         <v>133</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>257</v>
+        <v>164</v>
       </c>
       <c r="AC87" t="s" s="2">
         <v>75</v>
@@ -12279,7 +12294,7 @@
         <v>134</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>258</v>
+        <v>165</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
@@ -12314,7 +12329,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>259</v>
+        <v>166</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12340,13 +12355,13 @@
         <v>100</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>260</v>
+        <v>167</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>261</v>
+        <v>168</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12354,7 +12369,7 @@
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>75</v>
@@ -12396,7 +12411,7 @@
         <v>75</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>84</v>
@@ -12431,7 +12446,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12454,13 +12469,13 @@
         <v>75</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>267</v>
+        <v>174</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>268</v>
+        <v>175</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12499,17 +12514,17 @@
         <v>75</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>269</v>
+        <v>176</v>
       </c>
       <c r="AB89" s="2"/>
       <c r="AC89" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>270</v>
+        <v>177</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>76</v>
@@ -12544,10 +12559,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>272</v>
+        <v>179</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>75</v>
@@ -12569,13 +12584,13 @@
         <v>75</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>267</v>
+        <v>174</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>268</v>
+        <v>175</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12602,11 +12617,11 @@
         <v>75</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>75</v>
@@ -12624,7 +12639,7 @@
         <v>75</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>76</v>
@@ -12662,7 +12677,7 @@
         <v>129</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>75</v>
@@ -12684,13 +12699,13 @@
         <v>75</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12776,9 +12791,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B92" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="C92" t="s" s="2">
         <v>75</v>
       </c>
@@ -12799,13 +12816,13 @@
         <v>75</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>86</v>
+        <v>350</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>252</v>
+        <v>351</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>253</v>
+        <v>351</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12856,25 +12873,25 @@
         <v>75</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>75</v>
@@ -12891,9 +12908,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B93" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="C93" t="s" s="2">
         <v>75</v>
       </c>
@@ -12902,7 +12921,7 @@
         <v>76</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>75</v>
@@ -12914,13 +12933,13 @@
         <v>75</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>130</v>
+        <v>353</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>131</v>
+        <v>354</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>132</v>
+        <v>354</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12959,19 +12978,19 @@
         <v>75</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="AC93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD93" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>258</v>
+        <v>135</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>76</v>
@@ -12980,7 +12999,7 @@
         <v>77</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>136</v>
@@ -12989,7 +13008,7 @@
         <v>75</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>75</v>
@@ -13006,15 +13025,17 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B94" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="C94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>84</v>
@@ -13029,24 +13050,22 @@
         <v>75</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>260</v>
+        <v>357</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>361</v>
+        <v>75</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>75</v>
@@ -13088,19 +13107,19 @@
         <v>75</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>264</v>
+        <v>135</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>75</v>
@@ -13123,9 +13142,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B95" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="C95" t="s" s="2">
         <v>75</v>
       </c>
@@ -13146,13 +13167,13 @@
         <v>75</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>266</v>
+        <v>359</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>267</v>
+        <v>360</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>268</v>
+        <v>360</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13191,29 +13212,31 @@
         <v>75</v>
       </c>
       <c r="AA95" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AB95" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD95" t="s" s="2">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>75</v>
@@ -13236,10 +13259,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>75</v>
@@ -13261,13 +13284,13 @@
         <v>75</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>266</v>
+        <v>362</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>267</v>
+        <v>363</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>268</v>
+        <v>363</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -13294,11 +13317,13 @@
         <v>75</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X96" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Y96" t="s" s="2">
-        <v>362</v>
+        <v>75</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>75</v>
@@ -13316,19 +13341,19 @@
         <v>75</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>75</v>
@@ -13354,7 +13379,7 @@
         <v>129</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>75</v>
@@ -13376,13 +13401,13 @@
         <v>75</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -13471,7 +13496,7 @@
         <v>129</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>75</v>
@@ -13493,13 +13518,13 @@
         <v>75</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13585,11 +13610,9 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
         <v>75</v>
       </c>
@@ -13610,13 +13633,13 @@
         <v>75</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>370</v>
+        <v>86</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>371</v>
+        <v>159</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>372</v>
+        <v>160</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13667,25 +13690,25 @@
         <v>75</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>75</v>
@@ -13702,11 +13725,9 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
         <v>75</v>
       </c>
@@ -13715,7 +13736,7 @@
         <v>76</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>75</v>
@@ -13727,13 +13748,13 @@
         <v>75</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>374</v>
+        <v>130</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>375</v>
+        <v>131</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>375</v>
+        <v>132</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13772,19 +13793,19 @@
         <v>75</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>76</v>
@@ -13793,7 +13814,7 @@
         <v>77</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>136</v>
@@ -13802,7 +13823,7 @@
         <v>75</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>75</v>
@@ -13819,17 +13840,15 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>84</v>
@@ -13844,22 +13863,24 @@
         <v>75</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>377</v>
+        <v>100</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>378</v>
+        <v>167</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M101" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
-        <v>75</v>
+        <v>370</v>
       </c>
       <c r="R101" t="s" s="2">
         <v>75</v>
@@ -13901,19 +13922,19 @@
         <v>75</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>75</v>
@@ -13936,43 +13957,39 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>379</v>
+        <v>172</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>381</v>
+        <v>174</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>75</v>
       </c>
@@ -14008,31 +14025,29 @@
         <v>75</v>
       </c>
       <c r="AA102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB102" s="2"/>
       <c r="AC102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD102" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>385</v>
+        <v>178</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>75</v>
@@ -14055,9 +14070,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B103" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C103" t="s" s="2">
         <v>75</v>
       </c>
@@ -14066,7 +14083,7 @@
         <v>76</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>75</v>
@@ -14078,20 +14095,16 @@
         <v>75</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>387</v>
+        <v>173</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>388</v>
+        <v>174</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>75</v>
       </c>
@@ -14115,13 +14128,11 @@
         <v>75</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X103" s="2"/>
       <c r="Y103" t="s" s="2">
-        <v>75</v>
+        <v>371</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>75</v>
@@ -14139,16 +14150,16 @@
         <v>75</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>386</v>
+        <v>178</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>97</v>
@@ -14157,7 +14168,7 @@
         <v>75</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>392</v>
+        <v>98</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>75</v>
@@ -14166,7 +14177,7 @@
         <v>75</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>393</v>
+        <v>75</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>75</v>
@@ -14174,15 +14185,17 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B104" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="C104" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>84</v>
@@ -14191,26 +14204,22 @@
         <v>75</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>106</v>
+        <v>373</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>75</v>
       </c>
@@ -14234,13 +14243,13 @@
         <v>75</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>399</v>
+        <v>75</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>401</v>
+        <v>75</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>75</v>
@@ -14258,28 +14267,28 @@
         <v>75</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>394</v>
+        <v>135</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>402</v>
+        <v>75</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>403</v>
+        <v>98</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>404</v>
+        <v>75</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>75</v>
@@ -14293,7 +14302,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>405</v>
+        <v>158</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14313,21 +14322,19 @@
         <v>75</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>406</v>
+        <v>159</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>407</v>
+        <v>160</v>
       </c>
       <c r="M105" s="2"/>
-      <c r="N105" t="s" s="2">
-        <v>408</v>
-      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>75</v>
       </c>
@@ -14351,13 +14358,13 @@
         <v>75</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>409</v>
+        <v>75</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>410</v>
+        <v>75</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>75</v>
@@ -14375,7 +14382,7 @@
         <v>75</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>405</v>
+        <v>161</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>76</v>
@@ -14387,22 +14394,22 @@
         <v>75</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>412</v>
+        <v>75</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>75</v>
@@ -14410,7 +14417,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>413</v>
+        <v>163</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14421,7 +14428,7 @@
         <v>76</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>75</v>
@@ -14430,23 +14437,19 @@
         <v>75</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>414</v>
+        <v>130</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>415</v>
+        <v>131</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>75</v>
       </c>
@@ -14482,31 +14485,31 @@
         <v>75</v>
       </c>
       <c r="AA106" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AC106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD106" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>413</v>
+        <v>165</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>75</v>
@@ -14515,21 +14518,21 @@
         <v>75</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>419</v>
+        <v>75</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>421</v>
+        <v>75</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>422</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>423</v>
+        <v>166</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14537,7 +14540,7 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>84</v>
@@ -14549,29 +14552,27 @@
         <v>75</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>424</v>
+        <v>100</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>425</v>
+        <v>167</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>426</v>
+        <v>168</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="R107" t="s" s="2">
         <v>75</v>
@@ -14613,10 +14614,10 @@
         <v>75</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>423</v>
+        <v>171</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>84</v>
@@ -14625,30 +14626,30 @@
         <v>75</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>419</v>
+        <v>75</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>421</v>
+        <v>75</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>422</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>429</v>
+        <v>172</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14668,21 +14669,19 @@
         <v>75</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>430</v>
+        <v>174</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>431</v>
+        <v>175</v>
       </c>
       <c r="M108" s="2"/>
-      <c r="N108" t="s" s="2">
-        <v>432</v>
-      </c>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>75</v>
       </c>
@@ -14718,19 +14717,17 @@
         <v>75</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="AB108" s="2"/>
       <c r="AC108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>429</v>
+        <v>178</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>76</v>
@@ -14748,32 +14745,34 @@
         <v>75</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>419</v>
+        <v>75</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>421</v>
+        <v>75</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>422</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B109" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C109" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>84</v>
@@ -14785,21 +14784,19 @@
         <v>75</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>434</v>
+        <v>173</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>435</v>
+        <v>174</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>436</v>
+        <v>175</v>
       </c>
       <c r="M109" s="2"/>
-      <c r="N109" t="s" s="2">
-        <v>437</v>
-      </c>
+      <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>75</v>
       </c>
@@ -14823,13 +14820,11 @@
         <v>75</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X109" s="2"/>
       <c r="Y109" t="s" s="2">
-        <v>75</v>
+        <v>376</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>75</v>
@@ -14847,10 +14842,10 @@
         <v>75</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>433</v>
+        <v>178</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>84</v>
@@ -14862,29 +14857,31 @@
         <v>97</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>438</v>
+        <v>75</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>419</v>
+        <v>75</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>420</v>
+        <v>75</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>421</v>
+        <v>75</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>422</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B110" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="C110" t="s" s="2">
         <v>75</v>
       </c>
@@ -14902,23 +14899,19 @@
         <v>75</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>86</v>
+        <v>378</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>440</v>
+        <v>379</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>75</v>
       </c>
@@ -14966,34 +14959,34 @@
         <v>75</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>439</v>
+        <v>135</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>444</v>
+        <v>75</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>445</v>
+        <v>75</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>75</v>
@@ -15001,9 +14994,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B111" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="C111" t="s" s="2">
         <v>75</v>
       </c>
@@ -15024,20 +15019,16 @@
         <v>75</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>266</v>
+        <v>381</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>447</v>
+        <v>382</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>75</v>
       </c>
@@ -15061,13 +15052,13 @@
         <v>75</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>273</v>
+        <v>75</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>451</v>
+        <v>75</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>452</v>
+        <v>75</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>75</v>
@@ -15085,31 +15076,31 @@
         <v>75</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>446</v>
+        <v>135</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>453</v>
+        <v>75</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>75</v>
@@ -15120,15 +15111,17 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B112" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="C112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F112" t="s" s="2">
         <v>84</v>
@@ -15140,21 +15133,19 @@
         <v>75</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>455</v>
+        <v>384</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>456</v>
+        <v>385</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>457</v>
+        <v>386</v>
       </c>
       <c r="M112" s="2"/>
-      <c r="N112" t="s" s="2">
-        <v>458</v>
-      </c>
+      <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
         <v>75</v>
       </c>
@@ -15202,34 +15193,34 @@
         <v>75</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>454</v>
+        <v>135</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>459</v>
+        <v>75</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>460</v>
+        <v>98</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>461</v>
+        <v>75</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>462</v>
+        <v>75</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>75</v>
@@ -15237,42 +15228,42 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>463</v>
+        <v>387</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>464</v>
+        <v>130</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>465</v>
+        <v>389</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>466</v>
+        <v>390</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>467</v>
+        <v>391</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>468</v>
+        <v>392</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>75</v>
@@ -15321,10 +15312,10 @@
         <v>75</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>463</v>
+        <v>393</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
@@ -15333,30 +15324,30 @@
         <v>75</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>469</v>
+        <v>75</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>470</v>
+        <v>75</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>471</v>
+        <v>75</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>472</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>473</v>
+        <v>394</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15379,19 +15370,19 @@
         <v>75</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>474</v>
+        <v>395</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>475</v>
+        <v>396</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>476</v>
+        <v>397</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>477</v>
+        <v>398</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>478</v>
+        <v>399</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>75</v>
@@ -15440,7 +15431,7 @@
         <v>75</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>473</v>
+        <v>394</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>76</v>
@@ -15449,7 +15440,7 @@
         <v>77</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>97</v>
@@ -15458,7 +15449,7 @@
         <v>75</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>75</v>
+        <v>400</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>75</v>
@@ -15467,7 +15458,7 @@
         <v>75</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>75</v>
+        <v>401</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>75</v>
@@ -15475,7 +15466,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>479</v>
+        <v>402</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15483,7 +15474,7 @@
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F115" t="s" s="2">
         <v>84</v>
@@ -15492,22 +15483,26 @@
         <v>75</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O115" t="s" s="2">
         <v>75</v>
       </c>
@@ -15531,13 +15526,13 @@
         <v>75</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>75</v>
+        <v>407</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>75</v>
+        <v>408</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>75</v>
+        <v>409</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>75</v>
@@ -15555,10 +15550,10 @@
         <v>75</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>254</v>
+        <v>402</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>84</v>
@@ -15567,16 +15562,16 @@
         <v>75</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>75</v>
+        <v>410</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>255</v>
+        <v>411</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>75</v>
+        <v>412</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>75</v>
@@ -15590,18 +15585,18 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>480</v>
+        <v>413</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>75</v>
@@ -15610,21 +15605,21 @@
         <v>75</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>481</v>
+        <v>414</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N116" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="M116" s="2"/>
+      <c r="N116" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O116" t="s" s="2">
         <v>75</v>
       </c>
@@ -15648,13 +15643,13 @@
         <v>75</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>75</v>
+        <v>417</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>75</v>
+        <v>418</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>75</v>
@@ -15672,34 +15667,34 @@
         <v>75</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>258</v>
+        <v>413</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>75</v>
+        <v>419</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>75</v>
+        <v>420</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>75</v>
@@ -15707,42 +15702,42 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>483</v>
+        <v>421</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>484</v>
+        <v>75</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I117" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>130</v>
+        <v>422</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>485</v>
+        <v>423</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>486</v>
+        <v>424</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>75</v>
@@ -15791,42 +15786,42 @@
         <v>75</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>487</v>
+        <v>421</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>75</v>
+        <v>427</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>75</v>
+        <v>428</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>75</v>
+        <v>429</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>75</v>
+        <v>430</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>488</v>
+        <v>431</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15834,7 +15829,7 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>84</v>
@@ -15849,17 +15844,19 @@
         <v>85</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>266</v>
+        <v>432</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M118" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>435</v>
+      </c>
       <c r="N118" t="s" s="2">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>75</v>
@@ -15884,11 +15881,13 @@
         <v>75</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="X118" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Y118" t="s" s="2">
-        <v>492</v>
+        <v>75</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>75</v>
@@ -15906,10 +15905,10 @@
         <v>75</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>488</v>
+        <v>431</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>84</v>
@@ -15927,21 +15926,21 @@
         <v>75</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>75</v>
+        <v>427</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>75</v>
+        <v>428</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>75</v>
+        <v>429</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>75</v>
+        <v>430</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15949,7 +15948,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>84</v>
@@ -15967,16 +15966,14 @@
         <v>86</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>497</v>
+        <v>440</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>75</v>
@@ -16025,10 +16022,10 @@
         <v>75</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>84</v>
@@ -16046,21 +16043,21 @@
         <v>75</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>75</v>
+        <v>427</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>498</v>
+        <v>428</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>499</v>
+        <v>429</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>500</v>
+        <v>430</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16068,7 +16065,7 @@
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F120" t="s" s="2">
         <v>84</v>
@@ -16083,17 +16080,17 @@
         <v>85</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>86</v>
+        <v>442</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>502</v>
+        <v>443</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>503</v>
+        <v>444</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>504</v>
+        <v>445</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>75</v>
@@ -16142,10 +16139,10 @@
         <v>75</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>501</v>
+        <v>441</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>84</v>
@@ -16157,27 +16154,27 @@
         <v>97</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>75</v>
+        <v>446</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>75</v>
+        <v>427</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>498</v>
+        <v>428</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>499</v>
+        <v>429</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>500</v>
+        <v>430</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>505</v>
+        <v>447</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16200,17 +16197,19 @@
         <v>85</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>506</v>
+        <v>86</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>507</v>
+        <v>448</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M121" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="N121" t="s" s="2">
-        <v>509</v>
+        <v>451</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>75</v>
@@ -16259,7 +16258,7 @@
         <v>75</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>505</v>
+        <v>447</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>76</v>
@@ -16283,10 +16282,10 @@
         <v>75</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>75</v>
+        <v>452</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>75</v>
@@ -16294,7 +16293,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>510</v>
+        <v>454</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16314,20 +16313,22 @@
         <v>75</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>511</v>
+        <v>455</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M122" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="N122" t="s" s="2">
-        <v>513</v>
+        <v>458</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>75</v>
@@ -16352,13 +16353,13 @@
         <v>75</v>
       </c>
       <c r="W122" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>75</v>
+        <v>459</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>75</v>
+        <v>460</v>
       </c>
       <c r="Z122" t="s" s="2">
         <v>75</v>
@@ -16376,7 +16377,7 @@
         <v>75</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>510</v>
+        <v>454</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>76</v>
@@ -16400,7 +16401,7 @@
         <v>75</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>514</v>
+        <v>461</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>75</v>
@@ -16411,18 +16412,18 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>515</v>
+        <v>462</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>516</v>
+        <v>75</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>75</v>
@@ -16431,22 +16432,20 @@
         <v>75</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>517</v>
+        <v>464</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>520</v>
+        <v>466</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>75</v>
@@ -16495,13 +16494,13 @@
         <v>75</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>515</v>
+        <v>462</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>75</v>
@@ -16510,19 +16509,19 @@
         <v>97</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>75</v>
+        <v>467</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>75</v>
+        <v>468</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>75</v>
+        <v>469</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>75</v>
+        <v>470</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>75</v>
@@ -16530,7 +16529,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>521</v>
+        <v>471</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16538,7 +16537,7 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F124" t="s" s="2">
         <v>84</v>
@@ -16550,19 +16549,23 @@
         <v>75</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>86</v>
+        <v>472</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>252</v>
+        <v>473</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O124" t="s" s="2">
         <v>75</v>
       </c>
@@ -16610,46 +16613,46 @@
         <v>75</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>254</v>
+        <v>471</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>75</v>
+        <v>477</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>75</v>
+        <v>478</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>75</v>
+        <v>479</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>75</v>
+        <v>480</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>522</v>
+        <v>481</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16668,18 +16671,20 @@
         <v>75</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>130</v>
+        <v>482</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N125" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="O125" t="s" s="2">
         <v>75</v>
       </c>
@@ -16727,7 +16732,7 @@
         <v>75</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>258</v>
+        <v>481</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>76</v>
@@ -16739,13 +16744,13 @@
         <v>75</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>75</v>
@@ -16762,43 +16767,39 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>523</v>
+        <v>487</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>484</v>
+        <v>75</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>485</v>
+        <v>159</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
         <v>75</v>
       </c>
@@ -16846,25 +16847,25 @@
         <v>75</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>487</v>
+        <v>161</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>75</v>
@@ -16881,18 +16882,18 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>524</v>
+        <v>488</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>75</v>
@@ -16901,23 +16902,21 @@
         <v>75</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>75</v>
       </c>
@@ -16941,13 +16940,13 @@
         <v>75</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>273</v>
+        <v>75</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>529</v>
+        <v>75</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>530</v>
+        <v>75</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>75</v>
@@ -16965,25 +16964,25 @@
         <v>75</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>524</v>
+        <v>165</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>75</v>
@@ -17000,42 +16999,42 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>75</v>
+        <v>492</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H128" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I128" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>532</v>
+        <v>130</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>535</v>
+        <v>391</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>536</v>
+        <v>392</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>75</v>
@@ -17084,42 +17083,42 @@
         <v>75</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>498</v>
+        <v>75</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>499</v>
+        <v>75</v>
       </c>
       <c r="AO128" t="s" s="2">
-        <v>500</v>
+        <v>75</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>537</v>
+        <v>496</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17127,10 +17126,10 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>75</v>
@@ -17139,20 +17138,20 @@
         <v>75</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>474</v>
+        <v>173</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>538</v>
+        <v>497</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>75</v>
@@ -17177,13 +17176,11 @@
         <v>75</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="X129" s="2"/>
       <c r="Y129" t="s" s="2">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>75</v>
@@ -17201,13 +17198,13 @@
         <v>75</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>537</v>
+        <v>496</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>75</v>
@@ -17236,7 +17233,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>540</v>
+        <v>501</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17244,7 +17241,7 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F130" t="s" s="2">
         <v>84</v>
@@ -17256,19 +17253,23 @@
         <v>75</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J130" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>252</v>
+        <v>502</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>75</v>
       </c>
@@ -17316,10 +17317,10 @@
         <v>75</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>254</v>
+        <v>501</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>84</v>
@@ -17328,41 +17329,41 @@
         <v>75</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>75</v>
+        <v>506</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>75</v>
+        <v>507</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>75</v>
+        <v>508</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>75</v>
@@ -17371,21 +17372,21 @@
         <v>75</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N131" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="M131" s="2"/>
+      <c r="N131" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="O131" t="s" s="2">
         <v>75</v>
       </c>
@@ -17433,77 +17434,75 @@
         <v>75</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>258</v>
+        <v>509</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>75</v>
+        <v>506</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>75</v>
+        <v>507</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>75</v>
+        <v>508</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>484</v>
+        <v>75</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H132" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I132" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>130</v>
+        <v>514</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>384</v>
+        <v>517</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>75</v>
@@ -17552,25 +17551,25 @@
         <v>75</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>75</v>
@@ -17579,7 +17578,7 @@
         <v>75</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>75</v>
+        <v>453</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>75</v>
@@ -17587,7 +17586,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17595,7 +17594,7 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F133" t="s" s="2">
         <v>84</v>
@@ -17610,17 +17609,17 @@
         <v>85</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>266</v>
+        <v>86</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>75</v>
@@ -17645,13 +17644,13 @@
         <v>75</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>547</v>
+        <v>75</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>548</v>
+        <v>75</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>549</v>
+        <v>75</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>75</v>
@@ -17669,10 +17668,10 @@
         <v>75</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>84</v>
@@ -17693,7 +17692,7 @@
         <v>75</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>75</v>
+        <v>522</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>75</v>
@@ -17704,18 +17703,18 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>75</v>
+        <v>524</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>75</v>
@@ -17724,20 +17723,22 @@
         <v>75</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M134" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="N134" t="s" s="2">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>75</v>
@@ -17786,13 +17787,13 @@
         <v>75</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>75</v>
@@ -17821,7 +17822,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17844,20 +17845,16 @@
         <v>75</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>555</v>
+        <v>86</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>556</v>
+        <v>159</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>75</v>
       </c>
@@ -17905,7 +17902,7 @@
         <v>75</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>554</v>
+        <v>161</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>76</v>
@@ -17917,13 +17914,13 @@
         <v>75</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>75</v>
@@ -17940,11 +17937,11 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -17963,18 +17960,18 @@
         <v>75</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>561</v>
+        <v>130</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>562</v>
+        <v>489</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="M136" s="2"/>
-      <c r="N136" t="s" s="2">
-        <v>564</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>75</v>
       </c>
@@ -18022,7 +18019,7 @@
         <v>75</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>560</v>
+        <v>165</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>76</v>
@@ -18034,25 +18031,1320 @@
         <v>75</v>
       </c>
       <c r="AI136" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN136" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO136" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N137" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P137" s="2"/>
+      <c r="Q137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AL137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN137" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO137" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F138" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P138" s="2"/>
+      <c r="Q138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI138" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AN136" t="s" s="2">
+      <c r="AJ138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN138" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO138" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F139" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="O139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P139" s="2"/>
+      <c r="Q139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AN139" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AO139" t="s" s="2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M140" s="2"/>
+      <c r="N140" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="O140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P140" s="2"/>
+      <c r="Q140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO140" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO141" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO142" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN143" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO143" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F144" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M144" s="2"/>
+      <c r="N144" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN144" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO144" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F145" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M145" s="2"/>
+      <c r="N145" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="O145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO145" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L146" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="AO136" t="s" s="2">
-        <v>422</v>
+      <c r="M146" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P146" s="2"/>
+      <c r="Q146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN146" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO146" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M147" s="2"/>
+      <c r="N147" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="O147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P147" s="2"/>
+      <c r="Q147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL147" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM147" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AN147" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AO147" t="s" s="2">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
